--- a/metaData/uganda-2013_vignettes_codebook.xlsx
+++ b/metaData/uganda-2013_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E229029-BE01-4EA0-B51B-0BEF658F36CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BFF555A5-5388-4489-A573-4C59A1B388D9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3790,9 +3790,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>In Uganda survey, item is "presence of blood in sputum/color of sputum"</t>
   </si>
   <si>
@@ -5129,6 +5126,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -5688,7 +5688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -5746,7 +5746,7 @@
         <v>1221</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D4" s="24"/>
     </row>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>1272</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>1273</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="24"/>
@@ -5865,7 +5865,7 @@
         <v>1233</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>875</v>
@@ -5893,7 +5893,7 @@
         <v>1235</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>877</v>
@@ -5907,7 +5907,7 @@
         <v>1236</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>878</v>
@@ -5921,7 +5921,7 @@
         <v>1237</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>879</v>
@@ -5935,7 +5935,7 @@
         <v>1238</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>880</v>
@@ -5949,7 +5949,7 @@
         <v>1239</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>881</v>
@@ -5981,7 +5981,7 @@
         <v>1244</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>1245</v>
+        <v>1691</v>
       </c>
       <c r="D25" s="24"/>
     </row>
@@ -5998,18 +5998,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>1268</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>1270</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>1271</v>
       </c>
     </row>
   </sheetData>
@@ -6058,25 +6058,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1331</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1332</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1333</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1334</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>88</v>
@@ -6085,46 +6085,46 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>1336</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1337</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1338</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1339</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>1340</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1341</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>1342</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1343</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>1344</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1345</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -6139,28 +6139,28 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>1346</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>1347</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>1348</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>1349</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1350</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1351</v>
       </c>
       <c r="D13" s="12"/>
     </row>
@@ -6169,7 +6169,7 @@
         <v>1144</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -6205,16 +6205,16 @@
         <v>848</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>1354</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>1355</v>
       </c>
       <c r="D19" s="12"/>
     </row>
@@ -6223,25 +6223,25 @@
         <v>703</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1358</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1359</v>
       </c>
       <c r="D22" s="12"/>
     </row>
@@ -6250,7 +6250,7 @@
         <v>704</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D23" s="12"/>
     </row>
@@ -6259,62 +6259,62 @@
         <v>732</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>1362</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>1363</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>1364</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1365</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>1366</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1367</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>1368</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1369</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>1370</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>1371</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1372</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1373</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -6323,34 +6323,34 @@
         <v>838</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>1375</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>1376</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>1377</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>1378</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>1379</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>1380</v>
       </c>
       <c r="D34" s="12"/>
     </row>
@@ -6365,19 +6365,19 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>1381</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1382</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>1383</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1384</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -6401,28 +6401,28 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>1385</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1386</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>1387</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>1388</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>1389</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>1390</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -6431,97 +6431,97 @@
         <v>665</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>1392</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1393</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>1394</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1395</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>1396</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>1397</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>1398</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>1399</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>1400</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1401</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>1402</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>1403</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>1405</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1406</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>1407</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>1408</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>1409</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>1410</v>
       </c>
       <c r="D53" s="12"/>
     </row>
@@ -6536,28 +6536,28 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>1411</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1412</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>1413</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>1414</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>1415</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1416</v>
       </c>
       <c r="D57" s="12"/>
     </row>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>1417</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>1418</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -6584,52 +6584,52 @@
         <v>739</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>1420</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>1421</v>
       </c>
       <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>1422</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1423</v>
       </c>
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>1424</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1425</v>
       </c>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>1426</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>1427</v>
       </c>
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>1428</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>1429</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -6698,28 +6698,28 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>1430</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1431</v>
       </c>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>1432</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>1433</v>
       </c>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>1434</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1435</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -6728,79 +6728,79 @@
         <v>624</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>1437</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>1438</v>
       </c>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>1439</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1440</v>
       </c>
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>1441</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1442</v>
       </c>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>1443</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>1444</v>
       </c>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1445</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1446</v>
       </c>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>1293</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1294</v>
       </c>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>1447</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>1448</v>
       </c>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>1449</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1450</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -6815,46 +6815,46 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>1451</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>1452</v>
       </c>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>1453</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>1454</v>
       </c>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>1455</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>1456</v>
       </c>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>1457</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>1458</v>
       </c>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>1459</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>1460</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -6863,7 +6863,7 @@
         <v>671</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -6878,28 +6878,28 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>1462</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>1463</v>
       </c>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>1464</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>1465</v>
       </c>
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>1466</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>1467</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -6908,25 +6908,25 @@
         <v>641</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>1469</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>1470</v>
       </c>
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>1471</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>1472</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>1473</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>1474</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -6953,34 +6953,34 @@
         <v>922</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>1476</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>1477</v>
       </c>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>1478</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>1479</v>
       </c>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>1480</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>1481</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -7040,73 +7040,73 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>1482</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>1483</v>
       </c>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>1484</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>1485</v>
       </c>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>1486</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>1487</v>
       </c>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>1488</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>1489</v>
       </c>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>1490</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>1491</v>
       </c>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>1492</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>1493</v>
       </c>
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>1494</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>1495</v>
       </c>
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>1496</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>1497</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -7115,34 +7115,34 @@
         <v>660</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>1499</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>1500</v>
       </c>
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>1501</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>1502</v>
       </c>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>1503</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>1504</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -7151,7 +7151,7 @@
         <v>631</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -7166,100 +7166,100 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>1506</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>1507</v>
       </c>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>1508</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>1509</v>
       </c>
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>1510</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>1511</v>
       </c>
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>1512</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>1513</v>
       </c>
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>1514</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>1515</v>
       </c>
       <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>1516</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>1517</v>
       </c>
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A131" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>1518</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>1519</v>
       </c>
       <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A132" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>1520</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>1521</v>
       </c>
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>1522</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>1523</v>
       </c>
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>1524</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>1525</v>
       </c>
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>1526</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>1527</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -7268,115 +7268,115 @@
         <v>749</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>1529</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>1530</v>
       </c>
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="10" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>1531</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>1532</v>
       </c>
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>1533</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>1534</v>
       </c>
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>1535</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>1536</v>
       </c>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="10" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>1537</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>1538</v>
       </c>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>1539</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>1540</v>
       </c>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>1541</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>1542</v>
       </c>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="10" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>1543</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>1544</v>
       </c>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>1545</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>1546</v>
       </c>
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>1547</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>1548</v>
       </c>
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>1549</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>1550</v>
       </c>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>1551</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>1552</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -7385,79 +7385,79 @@
         <v>636</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>1554</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>1555</v>
       </c>
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A151" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>1556</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>1557</v>
       </c>
       <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>1558</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>1559</v>
       </c>
       <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>1560</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>1561</v>
       </c>
       <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>1562</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>1563</v>
       </c>
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>1564</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>1565</v>
       </c>
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>1566</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>1567</v>
       </c>
       <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>1568</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>1569</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -7992,28 +7992,28 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1570</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1571</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1572</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1573</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>1574</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1575</v>
       </c>
       <c r="D4" s="12"/>
     </row>
@@ -8022,16 +8022,16 @@
         <v>823</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1577</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1578</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -8049,7 +8049,7 @@
         <v>863</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -8064,19 +8064,19 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D11" s="12"/>
     </row>
@@ -8091,28 +8091,28 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1381</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1382</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>1583</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>1584</v>
       </c>
       <c r="D15" s="12"/>
     </row>
@@ -8127,19 +8127,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1585</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1586</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>1587</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1588</v>
       </c>
       <c r="D18" s="12"/>
     </row>
@@ -8148,70 +8148,70 @@
         <v>835</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>1590</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1591</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>1592</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1593</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1594</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1595</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>1596</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1597</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>1598</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>1599</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>1600</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>1601</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>1602</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1603</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="15"/>
@@ -8227,10 +8227,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>1604</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1605</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -8245,10 +8245,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1606</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1607</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -8281,19 +8281,19 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D35" s="12"/>
     </row>
@@ -8317,37 +8317,37 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>1612</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1613</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>1614</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>1615</v>
       </c>
       <c r="D41" s="12"/>
     </row>
@@ -8356,43 +8356,43 @@
         <v>686</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>1617</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>1618</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>1619</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1620</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>1621</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1622</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>1623</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>1624</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -8419,25 +8419,25 @@
         <v>671</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>1626</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>1627</v>
       </c>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>1628</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1629</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -8461,64 +8461,64 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>1630</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>1631</v>
       </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>1632</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1633</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>1634</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>1635</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>1636</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1637</v>
       </c>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>1638</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>1639</v>
       </c>
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>1640</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>1641</v>
       </c>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>1642</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>1643</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -8527,52 +8527,52 @@
         <v>674</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>1645</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1646</v>
       </c>
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>1647</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1648</v>
       </c>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>1649</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>1650</v>
       </c>
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>1651</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>1652</v>
       </c>
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>1653</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>1654</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -8587,19 +8587,19 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>1655</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1656</v>
       </c>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>1657</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1658</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -8608,52 +8608,52 @@
         <v>683</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>1660</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1661</v>
       </c>
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>1662</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1663</v>
       </c>
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -8686,37 +8686,37 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="10" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>1667</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1668</v>
       </c>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="10" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1670</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1671</v>
       </c>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>1514</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1515</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -8725,79 +8725,79 @@
         <v>1129</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>1673</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1674</v>
       </c>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="10" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>1677</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>1678</v>
       </c>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A88" s="10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>1679</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>1680</v>
       </c>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>1681</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>1682</v>
       </c>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A90" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>1683</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>1684</v>
       </c>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="10" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -9577,7 +9577,7 @@
         <v>899</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>900</v>
@@ -9585,24 +9585,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -11015,7 +11015,7 @@
         <v>899</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
@@ -11032,7 +11032,7 @@
         <v>899</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -11058,7 +11058,7 @@
         <v>173</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>899</v>
@@ -11073,7 +11073,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>899</v>
@@ -11741,7 +11741,7 @@
         <v>899</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -11758,7 +11758,7 @@
         <v>899</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -11965,7 +11965,7 @@
         <v>899</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -11982,7 +11982,7 @@
         <v>899</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -12988,13 +12988,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="C72" s="10" t="s">
         <v>1261</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>1262</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>899</v>
@@ -13835,7 +13835,7 @@
         <v>899</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -13852,7 +13852,7 @@
         <v>899</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -13869,7 +13869,7 @@
         <v>899</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -13886,7 +13886,7 @@
         <v>899</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -14359,13 +14359,13 @@
         <v>1202</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>899</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -14896,7 +14896,7 @@
         <v>899</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -14913,7 +14913,7 @@
         <v>899</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -15588,7 +15588,7 @@
         <v>899</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -15646,7 +15646,7 @@
         <v>899</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -16964,7 +16964,7 @@
         <v>239</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>899</v>
@@ -17165,7 +17165,7 @@
         <v>899</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -17182,7 +17182,7 @@
         <v>899</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -17806,7 +17806,7 @@
         <v>899</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -17823,7 +17823,7 @@
         <v>899</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -20929,37 +20929,37 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1274</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1275</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>1276</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1277</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>1278</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1279</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1280</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1281</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -20968,25 +20968,25 @@
         <v>703</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>1283</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1284</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>1285</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1286</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -21004,25 +21004,25 @@
         <v>837</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>1288</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>1289</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1290</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1291</v>
       </c>
       <c r="D13" s="12"/>
     </row>
@@ -21031,22 +21031,22 @@
         <v>624</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>1293</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>1294</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>26</v>
@@ -21064,10 +21064,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>1296</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1297</v>
       </c>
       <c r="D18" s="12"/>
     </row>
@@ -21082,46 +21082,46 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>1298</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1299</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>1300</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1301</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1302</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1303</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>1304</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1305</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>1306</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>1307</v>
       </c>
       <c r="D24" s="12"/>
     </row>
@@ -21145,7 +21145,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>988</v>
@@ -21154,10 +21154,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>1309</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1310</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -21172,46 +21172,46 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1311</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1312</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>1313</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1314</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>1315</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>1316</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>1317</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>1318</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>1319</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>1320</v>
       </c>
       <c r="D34" s="12"/>
     </row>
@@ -21226,46 +21226,46 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>1321</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1322</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>1323</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1324</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>1325</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>1326</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>1327</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>1328</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>1329</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1330</v>
       </c>
       <c r="D40" s="12"/>
     </row>
